--- a/medicine/Sexualité et sexologie/Al_Swearengen/Al_Swearengen.xlsx
+++ b/medicine/Sexualité et sexologie/Al_Swearengen/Al_Swearengen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ellis Albert Swearengen, alias Al Swearengen (né à Oskaloosa, Iowa, le 8 juillet 1845, mort le 15 novembre 1904 à Denver, Colorado) est un proxénète et un tenancier à Deadwood dans le Dakota du Sud, célèbre pour sa cruauté et ses alliances politiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son premier établissement à Deadwood se nommait le Cricket saloon. Il semble que Swearengen organisait des combats, dans ce lieu très exigu, afin  de créer de l'animation et d'attirer des clients. Cette première affaire lui permit de gagner assez d'argent pour en fonder une autre, plus importante.
 En 1877, Swearengen ouvre le Gem Variety Theater (en) et distrait Deadwood en spectacles de danse, chansons et toujours en combats. Mais la finalité première de ce nouvel établissement consiste plutôt à fournir des prostituées.
@@ -545,7 +559,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il apparaît sous les traits de Ian McShane dans la série télé Deadwood produite par la chaîne HBO et diffusée en France sur Canal+.
 </t>
@@ -576,7 +592,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le who's who des figures et lieux de l'Ouest mythique.
 (en) « Swearengen likely murdered, research indicates », article du Black Hills Pioneer, 24 juillet 2007.
